--- a/biology/Botanique/Brassavola/Brassavola.xlsx
+++ b/biology/Botanique/Brassavola/Brassavola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brassavola est un genre de plantes de la famille des Orchidaceae. Les espèces sont des plantes épiphytes originaires des forêts humides d'Amérique, et notamment, pour de nombreuses espèces, du Brésil.
 Ce sont des plantes aux fleurs blanches agrémentées d’un labelle cordiforme. Robert Brown les a nommées ainsi en 1813 en l'honneur d'Antonio Musa Brassavola, médecin et botaniste de la Renaissance.
@@ -512,7 +524,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Brassavola acaulis Lindl. &amp; Paxton (1851).
 Brassavola ceboletta Rchb.f. (1855).
